--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dr_x_\OneDrive\Робочий стіл\Districts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{261A8762-E85C-4604-8692-F718719FC448}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{8AA0907E-94F8-4673-AB1A-3B5B0CDFB492}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{261A8762-E85C-4604-8692-F718719FC448}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{869C4960-4FC0-48EE-BA6D-4DD67DE9CF1B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="1" xr2:uid="{D381AF9B-E43A-46BE-81F7-4BC949500767}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -723,7 +723,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -737,7 +737,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -764,11 +764,8 @@
       <c r="D2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -781,11 +778,8 @@
       <c r="D3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -798,11 +792,8 @@
       <c r="D4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -815,11 +806,8 @@
       <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -832,11 +820,8 @@
       <c r="D6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -849,11 +834,8 @@
       <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -866,11 +848,8 @@
       <c r="D8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -884,7 +863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -898,7 +877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -912,7 +891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -926,7 +905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -940,7 +919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -954,7 +933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -968,7 +947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
